--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.56869633333334</v>
+        <v>2.997390666666667</v>
       </c>
       <c r="H2">
-        <v>154.706089</v>
+        <v>8.992172</v>
       </c>
       <c r="I2">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="J2">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.658611</v>
+        <v>24.39696366666667</v>
       </c>
       <c r="N2">
-        <v>97.97583299999999</v>
+        <v>73.19089100000001</v>
       </c>
       <c r="O2">
-        <v>0.8917945513604759</v>
+        <v>0.8163484143771136</v>
       </c>
       <c r="P2">
-        <v>0.8917945513604759</v>
+        <v>0.8163484143771137</v>
       </c>
       <c r="Q2">
-        <v>1684.16199332746</v>
+        <v>73.12723118947244</v>
       </c>
       <c r="R2">
-        <v>15157.45793994714</v>
+        <v>658.1450807052521</v>
       </c>
       <c r="S2">
-        <v>0.1655027912310878</v>
+        <v>0.01223893995520202</v>
       </c>
       <c r="T2">
-        <v>0.1655027912310878</v>
+        <v>0.01223893995520202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.56869633333334</v>
+        <v>2.997390666666667</v>
       </c>
       <c r="H3">
-        <v>154.706089</v>
+        <v>8.992172</v>
       </c>
       <c r="I3">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="J3">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.015595</v>
       </c>
       <c r="O3">
-        <v>0.009244137657793045</v>
+        <v>0.01132763048204079</v>
       </c>
       <c r="P3">
-        <v>0.009244137657793047</v>
+        <v>0.01132763048204079</v>
       </c>
       <c r="Q3">
-        <v>17.45763671755056</v>
+        <v>1.014711658037778</v>
       </c>
       <c r="R3">
-        <v>157.118730457955</v>
+        <v>9.132404922340001</v>
       </c>
       <c r="S3">
-        <v>0.001715563951983308</v>
+        <v>0.000169827229235444</v>
       </c>
       <c r="T3">
-        <v>0.001715563951983308</v>
+        <v>0.000169827229235444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.56869633333334</v>
+        <v>2.997390666666667</v>
       </c>
       <c r="H4">
-        <v>154.706089</v>
+        <v>8.992172</v>
       </c>
       <c r="I4">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="J4">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.624084666666667</v>
+        <v>5.149984</v>
       </c>
       <c r="N4">
-        <v>10.872254</v>
+        <v>15.449952</v>
       </c>
       <c r="O4">
-        <v>0.09896131098173098</v>
+        <v>0.1723239551408455</v>
       </c>
       <c r="P4">
-        <v>0.098961310981731</v>
+        <v>0.1723239551408455</v>
       </c>
       <c r="Q4">
-        <v>186.8893216616229</v>
+        <v>15.43651397508266</v>
       </c>
       <c r="R4">
-        <v>1682.003894954606</v>
+        <v>138.928625775744</v>
       </c>
       <c r="S4">
-        <v>0.01836563496197434</v>
+        <v>0.002583532352936561</v>
       </c>
       <c r="T4">
-        <v>0.01836563496197434</v>
+        <v>0.002583532352936561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>495.1056600000001</v>
       </c>
       <c r="I5">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="J5">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.658611</v>
+        <v>24.39696366666667</v>
       </c>
       <c r="N5">
-        <v>97.97583299999999</v>
+        <v>73.19089100000001</v>
       </c>
       <c r="O5">
-        <v>0.8917945513604759</v>
+        <v>0.8163484143771136</v>
       </c>
       <c r="P5">
-        <v>0.8917945513604759</v>
+        <v>0.8163484143771137</v>
       </c>
       <c r="Q5">
-        <v>5389.82105127942</v>
+        <v>4026.358266060341</v>
       </c>
       <c r="R5">
-        <v>48508.38946151478</v>
+        <v>36237.22439454307</v>
       </c>
       <c r="S5">
-        <v>0.5296583296363334</v>
+        <v>0.6738715011479616</v>
       </c>
       <c r="T5">
-        <v>0.5296583296363334</v>
+        <v>0.6738715011479617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>495.1056600000001</v>
       </c>
       <c r="I6">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="J6">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.015595</v>
       </c>
       <c r="O6">
-        <v>0.009244137657793045</v>
+        <v>0.01132763048204079</v>
       </c>
       <c r="P6">
-        <v>0.009244137657793047</v>
+        <v>0.01132763048204079</v>
       </c>
       <c r="Q6">
         <v>55.86964808530001</v>
@@ -818,10 +818,10 @@
         <v>502.8268327677001</v>
       </c>
       <c r="S6">
-        <v>0.005490316691535677</v>
+        <v>0.009350624344884175</v>
       </c>
       <c r="T6">
-        <v>0.005490316691535679</v>
+        <v>0.009350624344884175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>495.1056600000001</v>
       </c>
       <c r="I7">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="J7">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.624084666666667</v>
+        <v>5.149984</v>
       </c>
       <c r="N7">
-        <v>10.872254</v>
+        <v>15.449952</v>
       </c>
       <c r="O7">
-        <v>0.09896131098173098</v>
+        <v>0.1723239551408455</v>
       </c>
       <c r="P7">
-        <v>0.098961310981731</v>
+        <v>0.1723239551408455</v>
       </c>
       <c r="Q7">
-        <v>598.1016102619601</v>
+        <v>849.92874243648</v>
       </c>
       <c r="R7">
-        <v>5382.914492357641</v>
+        <v>7649.358681928321</v>
       </c>
       <c r="S7">
-        <v>0.05877551347812419</v>
+        <v>0.1422483345216272</v>
       </c>
       <c r="T7">
-        <v>0.05877551347812421</v>
+        <v>0.1422483345216272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.26863233333334</v>
+        <v>31.89607</v>
       </c>
       <c r="H8">
-        <v>183.805897</v>
+        <v>95.68821</v>
       </c>
       <c r="I8">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="J8">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.658611</v>
+        <v>24.39696366666667</v>
       </c>
       <c r="N8">
-        <v>97.97583299999999</v>
+        <v>73.19089100000001</v>
       </c>
       <c r="O8">
-        <v>0.8917945513604759</v>
+        <v>0.8163484143771136</v>
       </c>
       <c r="P8">
-        <v>0.8917945513604759</v>
+        <v>0.8163484143771137</v>
       </c>
       <c r="Q8">
-        <v>2000.948429876356</v>
+        <v>778.1672608994567</v>
       </c>
       <c r="R8">
-        <v>18008.5358688872</v>
+        <v>7003.505348095111</v>
       </c>
       <c r="S8">
-        <v>0.1966334304930547</v>
+        <v>0.13023797327395</v>
       </c>
       <c r="T8">
-        <v>0.1966334304930547</v>
+        <v>0.13023797327395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.26863233333334</v>
+        <v>31.89607</v>
       </c>
       <c r="H9">
-        <v>183.805897</v>
+        <v>95.68821</v>
       </c>
       <c r="I9">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="J9">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.015595</v>
       </c>
       <c r="O9">
-        <v>0.009244137657793045</v>
+        <v>0.01132763048204079</v>
       </c>
       <c r="P9">
-        <v>0.009244137657793047</v>
+        <v>0.01132763048204079</v>
       </c>
       <c r="Q9">
-        <v>20.74137221819056</v>
+        <v>10.79782973721667</v>
       </c>
       <c r="R9">
-        <v>186.672349963715</v>
+        <v>97.18046763495001</v>
       </c>
       <c r="S9">
-        <v>0.002038257014274059</v>
+        <v>0.001807178907921168</v>
       </c>
       <c r="T9">
-        <v>0.00203825701427406</v>
+        <v>0.001807178907921168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.26863233333334</v>
+        <v>31.89607</v>
       </c>
       <c r="H10">
-        <v>183.805897</v>
+        <v>95.68821</v>
       </c>
       <c r="I10">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="J10">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.624084666666667</v>
+        <v>5.149984</v>
       </c>
       <c r="N10">
-        <v>10.872254</v>
+        <v>15.449952</v>
       </c>
       <c r="O10">
-        <v>0.09896131098173098</v>
+        <v>0.1723239551408455</v>
       </c>
       <c r="P10">
-        <v>0.098961310981731</v>
+        <v>0.1723239551408455</v>
       </c>
       <c r="Q10">
-        <v>222.0427109868709</v>
+        <v>164.26425016288</v>
       </c>
       <c r="R10">
-        <v>1998.384398881838</v>
+        <v>1478.37825146592</v>
       </c>
       <c r="S10">
-        <v>0.02182016254163244</v>
+        <v>0.0274920882662818</v>
       </c>
       <c r="T10">
-        <v>0.02182016254163244</v>
+        <v>0.0274920882662818</v>
       </c>
     </row>
   </sheetData>
